--- a/output/search_results.xlsx
+++ b/output/search_results.xlsx
@@ -1206,7 +1206,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dec 12, 2023 ... Argentina's government has announced it will slash the value of its currency, the peso, by more than 50 percent against the US dollar.</t>
+          <t>Dec 12, 2023 ... Argentina's government has announced it will slash the value of its currency, the peso, by more than 50 percent against the US dollar as its ...</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
